--- a/development/database/excel/attUp.xlsx
+++ b/development/database/excel/attUp.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1545,8 +1545,8 @@
       <c r="K6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L6" s="1">
-        <v>10</v>
+      <c r="L6" s="4">
+        <v>75</v>
       </c>
       <c r="M6" s="4">
         <v>75</v>
@@ -1589,8 +1589,8 @@
       <c r="K7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L7" s="1">
-        <v>20</v>
+      <c r="L7" s="4">
+        <v>125</v>
       </c>
       <c r="M7" s="4">
         <v>125</v>
@@ -1633,8 +1633,8 @@
       <c r="K8" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L8" s="1">
-        <v>35</v>
+      <c r="L8" s="4">
+        <v>175</v>
       </c>
       <c r="M8" s="4">
         <v>175</v>
@@ -1677,8 +1677,8 @@
       <c r="K9" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L9" s="1">
-        <v>65</v>
+      <c r="L9" s="4">
+        <v>250</v>
       </c>
       <c r="M9" s="4">
         <v>250</v>
@@ -1721,8 +1721,8 @@
       <c r="K10" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L10" s="1">
-        <v>120</v>
+      <c r="L10" s="4">
+        <v>375</v>
       </c>
       <c r="M10" s="4">
         <v>375</v>
@@ -1765,8 +1765,8 @@
       <c r="K11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="1">
-        <v>200</v>
+      <c r="L11" s="4">
+        <v>600</v>
       </c>
       <c r="M11" s="4">
         <v>600</v>
@@ -1809,8 +1809,8 @@
       <c r="K12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L12" s="1">
-        <v>350</v>
+      <c r="L12" s="4">
+        <v>800</v>
       </c>
       <c r="M12" s="4">
         <v>800</v>
@@ -1853,8 +1853,8 @@
       <c r="K13" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L13" s="1">
-        <v>575</v>
+      <c r="L13" s="4">
+        <v>1200</v>
       </c>
       <c r="M13" s="4">
         <v>1200</v>
@@ -1897,8 +1897,8 @@
       <c r="K14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L14" s="1">
-        <v>920</v>
+      <c r="L14" s="4">
+        <v>2000</v>
       </c>
       <c r="M14" s="4">
         <v>2000</v>
@@ -1941,8 +1941,8 @@
       <c r="K15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L15" s="1">
-        <v>1450</v>
+      <c r="L15" s="4">
+        <v>2800</v>
       </c>
       <c r="M15" s="4">
         <v>2800</v>
@@ -1985,8 +1985,8 @@
       <c r="K16" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L16" s="1">
-        <v>2200</v>
+      <c r="L16" s="4">
+        <v>4400</v>
       </c>
       <c r="M16" s="4">
         <v>4400</v>
@@ -2029,8 +2029,8 @@
       <c r="K17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L17" s="1">
-        <v>3300</v>
+      <c r="L17" s="4">
+        <v>6000</v>
       </c>
       <c r="M17" s="4">
         <v>6000</v>
@@ -2073,8 +2073,8 @@
       <c r="K18" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L18" s="1">
-        <v>4850</v>
+      <c r="L18" s="4">
+        <v>10000</v>
       </c>
       <c r="M18" s="4">
         <v>10000</v>
@@ -2117,8 +2117,8 @@
       <c r="K19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L19" s="1">
-        <v>7000</v>
+      <c r="L19" s="4">
+        <v>15000</v>
       </c>
       <c r="M19" s="4">
         <v>15000</v>
@@ -2161,8 +2161,8 @@
       <c r="K20" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L20" s="1">
-        <v>9850</v>
+      <c r="L20" s="4">
+        <v>22000</v>
       </c>
       <c r="M20" s="4">
         <v>22000</v>
@@ -2205,8 +2205,8 @@
       <c r="K21" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L21" s="1">
-        <v>13500</v>
+      <c r="L21" s="4">
+        <v>33000</v>
       </c>
       <c r="M21" s="4">
         <v>33000</v>
@@ -2249,8 +2249,8 @@
       <c r="K22" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L22" s="1">
-        <v>18800</v>
+      <c r="L22" s="4">
+        <v>50000</v>
       </c>
       <c r="M22" s="4">
         <v>50000</v>
@@ -2293,8 +2293,8 @@
       <c r="K23" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L23" s="1">
-        <v>25500</v>
+      <c r="L23" s="4">
+        <v>75000</v>
       </c>
       <c r="M23" s="4">
         <v>75000</v>
@@ -2337,8 +2337,8 @@
       <c r="K24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L24" s="1">
-        <v>34250</v>
+      <c r="L24" s="4">
+        <v>110000</v>
       </c>
       <c r="M24" s="4">
         <v>110000</v>
@@ -2381,8 +2381,8 @@
       <c r="K25" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L25" s="1">
-        <v>45500</v>
+      <c r="L25" s="4">
+        <v>165000</v>
       </c>
       <c r="M25" s="4">
         <v>165000</v>
@@ -2425,8 +2425,8 @@
       <c r="K26" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L26" s="1">
-        <v>60000</v>
+      <c r="L26" s="4">
+        <v>250000</v>
       </c>
       <c r="M26" s="4">
         <v>250000</v>
@@ -2469,8 +2469,8 @@
       <c r="K27" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L27" s="1">
-        <v>79000</v>
+      <c r="L27" s="4">
+        <v>375000</v>
       </c>
       <c r="M27" s="4">
         <v>375000</v>
@@ -2513,8 +2513,8 @@
       <c r="K28" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="L28" s="1">
-        <v>103500</v>
+      <c r="L28" s="4">
+        <v>560000</v>
       </c>
       <c r="M28" s="4">
         <v>560000</v>
@@ -2557,8 +2557,8 @@
       <c r="K29" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L29" s="1">
-        <v>135000</v>
+      <c r="L29" s="4">
+        <v>840000</v>
       </c>
       <c r="M29" s="4">
         <v>840000</v>
